--- a/medicine/Sexualité et sexologie/Union_du_lotus/Union_du_lotus.xlsx
+++ b/medicine/Sexualité et sexologie/Union_du_lotus/Union_du_lotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'union du lotus est une position sexuelle. L'homme est assis en position du lotus, en tailleur ou encore accroupi, la femme s'assied sur l'homme face à lui et place ses jambes autour de sa taille ou le long de ses cuisses. La femme est la plus à même d'effectuer le mouvement bien que l'homme puisse l'aider en la soulevant. Pour ce faire il peut placer ses mains sous les fesses de la femme.
 </t>
@@ -511,10 +523,12 @@
           <t>Yab Yum</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yab-Yum, « père-mère », est un couple de divinités du tantrisme représentant les principes masculin et féminin, ils sont généralement représentés en position d'Union du Lotus symbolisant l'imbrication des deux principes.
-C'est un symbole spirituel profond, signifiant l'union de l’amour et de la sagesse, pouvant avoir une connotation sexuelle ou érotique[1].
+C'est un symbole spirituel profond, signifiant l'union de l’amour et de la sagesse, pouvant avoir une connotation sexuelle ou érotique.
 </t>
         </is>
       </c>
